--- a/data/hotels_by_city/Houston/Houston_shard_458.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_458.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d530458-Reviews-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-West-At-Clay-Road.h1162446.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,909 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r584692143-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>530458</t>
+  </si>
+  <si>
+    <t>584692143</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Outstanding value</t>
+  </si>
+  <si>
+    <t>Gorgeous exterior and room, very friendly staff, super clean. We got a great night sleep because it was cool, dark and quiet. Due to time constraints, we did not eat breakfast, but it looked and smelled wonderful--plenty of space for people to enjoy their food, and it was really clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Rinesh, Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Gorgeous exterior and room, very friendly staff, super clean. We got a great night sleep because it was cool, dark and quiet. Due to time constraints, we did not eat breakfast, but it looked and smelled wonderful--plenty of space for people to enjoy their food, and it was really clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r580755475-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580755475</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Clean, modern hotel</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and modern and I loved it.  The staff was all very friendly and nice.  The breakfast was above and beyond, best I have had at any hotel.  The curtains need work because they do not close all the way and the only thing in between is a flimsy see through curtain.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and modern and I loved it.  The staff was all very friendly and nice.  The breakfast was above and beyond, best I have had at any hotel.  The curtains need work because they do not close all the way and the only thing in between is a flimsy see through curtain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r577669095-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577669095</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r555718673-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555718673</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Business Trip 1-18</t>
+  </si>
+  <si>
+    <t>Arrived around 10:00pm for my reservation.  My room was clean, comfortable and on the first floor.  The hotel was clean in the lobby and breakfast area.  Everything went well and checking in and out.  Didn't get to have breakfast due to an early meeting.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Arrived around 10:00pm for my reservation.  My room was clean, comfortable and on the first floor.  The hotel was clean in the lobby and breakfast area.  Everything went well and checking in and out.  Didn't get to have breakfast due to an early meeting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r494664466-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494664466</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Where to Stay With Your Best Friend</t>
+  </si>
+  <si>
+    <t>Loved this hotel! Wonderful enclosed park behind it for walking my best friend who stayed with me on my visit. Dog friendly hotels are the best! This one was spotless with a friendly and professional staff. Breakfast was great. I'd stay again and recommend it to everyone I know. And let's not forget an unbeatable price! La Quinta is now my forever hotel chain!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel! Wonderful enclosed park behind it for walking my best friend who stayed with me on my visit. Dog friendly hotels are the best! This one was spotless with a friendly and professional staff. Breakfast was great. I'd stay again and recommend it to everyone I know. And let's not forget an unbeatable price! La Quinta is now my forever hotel chain!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r493437430-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493437430</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Best Ever Experience</t>
+  </si>
+  <si>
+    <t>My experience at La Quinta was fabulous! My dog and I loved the enclosed park in the back, the grounds were wonderful, staff friendly and professional, food great, room couldn't have been cleaner. And what a value!  This was the first time travelling with my dog and La Quinta will be my forever hotel when I travel with or without her!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>My experience at La Quinta was fabulous! My dog and I loved the enclosed park in the back, the grounds were wonderful, staff friendly and professional, food great, room couldn't have been cleaner. And what a value!  This was the first time travelling with my dog and La Quinta will be my forever hotel when I travel with or without her!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r476360097-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476360097</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r463384984-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463384984</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the quality of the La Quinta on Clay Road. The hotel is new, modern, and nicely decorated. I enjoyed the breakfast, especially that there was fresh fruit every morning. I would highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded March 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2017</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the quality of the La Quinta on Clay Road. The hotel is new, modern, and nicely decorated. I enjoyed the breakfast, especially that there was fresh fruit every morning. I would highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r441738587-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441738587</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Staff was polite and helpful; room was made up promptly every day. The front desk staff was quick to help with any request we madeComplementary breakfast was better than usual--eggs, bacon &amp; sausage delicious; you can make your own waffle if you want.  There is fresh-brewed Starbucks coffee all day with flavored creamer if you want it. Room was comfortable &amp; the type expected; adequate seating, and the remote for the TV actually had fresh batteries. The closet was actually big enough to hang clothes, stow luggage and a bag of 3 days of dirty clothes.Not part of the hotel, but there is a gate into a small natural area with lovely old trees.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Staff was polite and helpful; room was made up promptly every day. The front desk staff was quick to help with any request we madeComplementary breakfast was better than usual--eggs, bacon &amp; sausage delicious; you can make your own waffle if you want.  There is fresh-brewed Starbucks coffee all day with flavored creamer if you want it. Room was comfortable &amp; the type expected; adequate seating, and the remote for the TV actually had fresh batteries. The closet was actually big enough to hang clothes, stow luggage and a bag of 3 days of dirty clothes.Not part of the hotel, but there is a gate into a small natural area with lovely old trees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r398683279-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398683279</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Best Family Value-Safe, Clean, Friendly, Excellent Breakfast Included</t>
+  </si>
+  <si>
+    <t>This was our second stay here and will not be our last.  The staff is always kind and helpful.  The whole hotel is clean, and they serve an excellent continental breakfast.  Check in/out is quick and easy.  We had 3 kids with us, so if you want some place that is safe, affordable and of quality, then this is it!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r380135000-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380135000</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Nice room and comfortable</t>
+  </si>
+  <si>
+    <t>Nice quiet room, great shower, very clean.  No daily newspaper and the breakfast is very disappointing, otherwise a nice hotel.  I felt safe and had no problems in the room.  I have stayed at La Quinta hotels and they are generally a very good chain.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r375011936-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375011936</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Gem of a Hotel</t>
+  </si>
+  <si>
+    <t>I was very satisfied with my stay here. The hotel is clean and modern. the room was comfortable and clean. The fitness room was great in that it had more equipment than I have seen in other hotels. I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r373828791-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373828791</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable room</t>
+  </si>
+  <si>
+    <t>Very clean room with a comfortable bed and an above average continental breakfast.  I stayed on a Saturday night and the breakfast the next morning consisted of a variety of muffins, bagels, pastries, cereal.  It also featured a waffle maker, sausage, liquid eggs, yogurt, a coffee machine and fresh juices.  I felt it was a good value and would not hesitate to recommend for a stay in the Jersey Village area of Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r364521222-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364521222</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel and amenities were sufficient for my needs. The room was very clean,the hotel lobby was very eye appealing.  Not a fan of the breakfast there could be more variety but as they say free is free</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r363981163-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363981163</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Clean and Fun Getaway!</t>
+  </si>
+  <si>
+    <t>Rode up for my father-in-laws 90th birthday bash. Wanted convenient, cost-effective, safe, and clean place. This was a "diamond in the rough"; next to Beltway 8 and accessible to all freeways. Cost was excellent since this was the week of the NCAA Playoffs and other hotels were at "gouge pricing". Clean with great free breakfast (make your own waffles, eggs &amp; bacon, and plenty of healthy options.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r328590108-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328590108</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay in Houston</t>
+  </si>
+  <si>
+    <t>I stayed for 1 night at the Clay Road La Quinta when on a recent business trip. The check in process was very quick and easy, and the room ("executive" king room, as standard kings were sold out) was comfortable and with ample space. The bed was also comfortable for a good night's sleep. This is a pretty quiet nighttime area of Houston, since it is an office park district, so noise at night is not much of an issue. The breakfast was fine...the eggs weren't great but were ok, and there was a good selection of items. The one thing that always makes me wonder a little about this hotel is the presence of portable dehumidifiers in rooms there. Anyway, a good stay at a decent price for the area, and I am sure I will be back on a future Houston trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I stayed for 1 night at the Clay Road La Quinta when on a recent business trip. The check in process was very quick and easy, and the room ("executive" king room, as standard kings were sold out) was comfortable and with ample space. The bed was also comfortable for a good night's sleep. This is a pretty quiet nighttime area of Houston, since it is an office park district, so noise at night is not much of an issue. The breakfast was fine...the eggs weren't great but were ok, and there was a good selection of items. The one thing that always makes me wonder a little about this hotel is the presence of portable dehumidifiers in rooms there. Anyway, a good stay at a decent price for the area, and I am sure I will be back on a future Houston trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r319993008-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319993008</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Great stay @ LaQuinta</t>
+  </si>
+  <si>
+    <t>It was great experience staying with LaQuinta. I relay enjoyed  my stay 6 days. While check-in &amp; Check-out process are very quick . I never saw check-in check-out past so quick past 15 year my visit other hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>It was great experience staying with LaQuinta. I relay enjoyed  my stay 6 days. While check-in &amp; Check-out process are very quick . I never saw check-in check-out past so quick past 15 year my visit other hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r313457795-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313457795</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>La Quinta: Great Room and Breakfast</t>
+  </si>
+  <si>
+    <t>This stay was excellent for Price. I was very satisfied especially with full breakfast in morning. I was with my family so everyone ate and were all satisfied.  However, I wish that they would have told me the pool was closed for renovation.  I really wanted pool so I was bit let down. This was a smoke free facility so that was great but there is smoking area up front which I used. I like the fact that it also build my points up so I can get a free stay down line.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This stay was excellent for Price. I was very satisfied especially with full breakfast in morning. I was with my family so everyone ate and were all satisfied.  However, I wish that they would have told me the pool was closed for renovation.  I really wanted pool so I was bit let down. This was a smoke free facility so that was great but there is smoking area up front which I used. I like the fact that it also build my points up so I can get a free stay down line.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r295011072-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295011072</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>PLEASANTLY surprised! HAPPY, HAPPY staff!  CLEAN place!</t>
+  </si>
+  <si>
+    <t>The place was obviously recently remodeled.  The staff were keeping it up though!  Someone was ALWAYS cleaning.  Floors, wiping down water fountains, tables, dusting.  We were in and out of the building multiple times and there was ALWAYS someone cleaning when we walked through the lobby area to the elevator.  The staff were nice!  Keri was the lady taking care of the buffet for both days we were there and she was always greeting everybody and asking if they needed anything.  She helped me fill up my water bottles, since I was making a mess on the floor, then when I tried to clean up my mess, she wouldn't let me.  She was awesome! Then Kimberly at the reception desk helped us several times.. with printing stuff and when needing a razor I forgot (OOPS!).  When passing any employee, the person would say "good morning" or "afternoon".. always in good moods.  Just a happy, happy place.  Pool was clean. Jacuzzi was clean and warm.  Towels were readily available by the pool.  Our room was perfect.  It was great to have a couch with a chaise and the TV could actually be maneuvered to have line of sight with the couch as well as the bed.  Place was quiet. No complaints about this place at all!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The place was obviously recently remodeled.  The staff were keeping it up though!  Someone was ALWAYS cleaning.  Floors, wiping down water fountains, tables, dusting.  We were in and out of the building multiple times and there was ALWAYS someone cleaning when we walked through the lobby area to the elevator.  The staff were nice!  Keri was the lady taking care of the buffet for both days we were there and she was always greeting everybody and asking if they needed anything.  She helped me fill up my water bottles, since I was making a mess on the floor, then when I tried to clean up my mess, she wouldn't let me.  She was awesome! Then Kimberly at the reception desk helped us several times.. with printing stuff and when needing a razor I forgot (OOPS!).  When passing any employee, the person would say "good morning" or "afternoon".. always in good moods.  Just a happy, happy place.  Pool was clean. Jacuzzi was clean and warm.  Towels were readily available by the pool.  Our room was perfect.  It was great to have a couch with a chaise and the TV could actually be maneuvered to have line of sight with the couch as well as the bed.  Place was quiet. No complaints about this place at all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r287803227-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287803227</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Recent visit</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  The prices are a little high compared to other La Quinta's, but this has to do with the location.  The location is very convenient for my business needs and the staff is always friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice hotel.  The prices are a little high compared to other La Quinta's, but this has to do with the location.  The location is very convenient for my business needs and the staff is always friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r274950288-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274950288</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Very clean La Quinta hotel</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was closed to my son's soccer games. Facilities were pretty good maintained, staff was very friendly and rooms clean and comfy. The dehumidifier was a very nice touch, kept the room fresh and humidity-free. Breakfast was also good, little bit better than other La Quinta hotels I stayed at. Couple of notes for improvement: wi-fi was not as fast as I expected, it was not bad at all though; and also the hotel closed the pool permanently, not that we could use it because the weather, but it's one of the features I see when looking for a hotel since I have 2 children.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was closed to my son's soccer games. Facilities were pretty good maintained, staff was very friendly and rooms clean and comfy. The dehumidifier was a very nice touch, kept the room fresh and humidity-free. Breakfast was also good, little bit better than other La Quinta hotels I stayed at. Couple of notes for improvement: wi-fi was not as fast as I expected, it was not bad at all though; and also the hotel closed the pool permanently, not that we could use it because the weather, but it's one of the features I see when looking for a hotel since I have 2 children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r258202038-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258202038</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Great location to the Energy Sector in West Houston. Clean and neat rooms. Breakfast in the morning. Easy access to Beltway 8, Hwy 290, I-10. easy access to rooms because of the size of the facility, not too large and overwhelming.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Great location to the Energy Sector in West Houston. Clean and neat rooms. Breakfast in the morning. Easy access to Beltway 8, Hwy 290, I-10. easy access to rooms because of the size of the facility, not too large and overwhelming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r252745665-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252745665</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Remodeled</t>
+  </si>
+  <si>
+    <t>The hotel was newly remodeled and very clean. I stayed in a king suite. The staff was friendly and the floor was quiet. My only complaint was that the fitness room didn't have an exercise bike, which I do as the primary part of my daily routine. There were disinfectant wipes though so that is always a plus! MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was newly remodeled and very clean. I stayed in a king suite. The staff was friendly and the floor was quiet. My only complaint was that the fitness room didn't have an exercise bike, which I do as the primary part of my daily routine. There were disinfectant wipes though so that is always a plus! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r251392719-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251392719</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Clean, Good Location, NW Houston inside the 8</t>
+  </si>
+  <si>
+    <t>I have stayed here at least 4 times visiting family. I have always thought it to be clean, quiet, professionally managed. There were some loud guests this last time - but that is not so much the hotel's problem. People can just be inconsiderate - forgetting that there are people perhaps sleeping at after 10:30pm. Comfortable beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here at least 4 times visiting family. I have always thought it to be clean, quiet, professionally managed. There were some loud guests this last time - but that is not so much the hotel's problem. People can just be inconsiderate - forgetting that there are people perhaps sleeping at after 10:30pm. Comfortable beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r229769194-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229769194</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Nothing great, but it was great.</t>
+  </si>
+  <si>
+    <t>There is nothing spectacular about this La Quinta. It is a motel. Plain and simple. There is nothing fancy about the rooms. There is nothing fancy about their breakfast buffet.It does, however, excel at being a hotel. It is quiet, clean, and in good repair. I recommend it, and I would not hesitate to stay there again should the need arise.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded September 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2014</t>
+  </si>
+  <si>
+    <t>There is nothing spectacular about this La Quinta. It is a motel. Plain and simple. There is nothing fancy about the rooms. There is nothing fancy about their breakfast buffet.It does, however, excel at being a hotel. It is quiet, clean, and in good repair. I recommend it, and I would not hesitate to stay there again should the need arise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r225189669-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225189669</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>Hotel has great breakfast, and clean lobby. The pool is sad looking, but it has a hot tub. The carpet in my room was a sticky, but management assured me that they clean the carpets regularly, but would make sure to go back and clean the room I was staying in more thoroughly. There was a roach in my bathroom, and management also addressed that they would get with pest control to make sure the situation was taken care of.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded August 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2014</t>
+  </si>
+  <si>
+    <t>Hotel has great breakfast, and clean lobby. The pool is sad looking, but it has a hot tub. The carpet in my room was a sticky, but management assured me that they clean the carpets regularly, but would make sure to go back and clean the room I was staying in more thoroughly. There was a roach in my bathroom, and management also addressed that they would get with pest control to make sure the situation was taken care of.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r225188911-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225188911</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>La Quinta</t>
+  </si>
+  <si>
+    <t>the hotel was very clean and check in and out was very fast.  Employees were very friendly and helpful on all questions. location of hotel was good for the locations I was doing business.  I would recommend this hotel to any one doing business in are around location.MoreShow less</t>
+  </si>
+  <si>
+    <t>the hotel was very clean and check in and out was very fast.  Employees were very friendly and helpful on all questions. location of hotel was good for the locations I was doing business.  I would recommend this hotel to any one doing business in are around location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r202658504-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202658504</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>La Quinta stay 04/08/2014</t>
+  </si>
+  <si>
+    <t>Food service needs improvement, internet is slow and the bathmat was missing, but other than that the stay was fine. It's right off a busy street, but surprisingly quiet. I'd stay here again just for that. It's on a tree lined street with good sidewalks, and if you want to take an evening stroll, it's a pleasant and safe area to do so.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r193759211-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193759211</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Insanely clean with a great location</t>
+  </si>
+  <si>
+    <t>This is my fall-back hotel for when the Omni or Royal Sonesta are sold out and what a great find for a cheaper, mid-range hotel. The location next to the tollway is far enough away to have a good night's sleep and close enough to zip around the area and avoid some of the local gridlock. It's also hands-down the cleanest hotel I have ever stayed in - literally, it looks like the place was built yesterday with not a mark, scratch or stain on anything and no evidence of anything ever being used. I don't normally notice this kind of thing but couldn't avoid admiring the flawless maintenance of this property. There's a small fitness facility and pool, free (and fast) wi-fi and parking and a reasonable choice on the free breakfast. The complimentary french press coffee, hot chocolate and tea served 24/7 is a nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This is my fall-back hotel for when the Omni or Royal Sonesta are sold out and what a great find for a cheaper, mid-range hotel. The location next to the tollway is far enough away to have a good night's sleep and close enough to zip around the area and avoid some of the local gridlock. It's also hands-down the cleanest hotel I have ever stayed in - literally, it looks like the place was built yesterday with not a mark, scratch or stain on anything and no evidence of anything ever being used. I don't normally notice this kind of thing but couldn't avoid admiring the flawless maintenance of this property. There's a small fitness facility and pool, free (and fast) wi-fi and parking and a reasonable choice on the free breakfast. The complimentary french press coffee, hot chocolate and tea served 24/7 is a nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r193060605-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193060605</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>This La Quinta might have the best staff of any Hotel I've ever stayed at. I was stuck in Houston due to the ice on the roads and they were more than helpful with anything I could have asked for. They made sure this experience was not forgotten. Thank you La Quinta for hiring exceptional employees!!!</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r176922752-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176922752</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Great for Business</t>
+  </si>
+  <si>
+    <t>I just finished my 2-night stay at this La Quinta (my 2nd stay at this hotel...my first was about 2 years ago). The location is perfect for me, as I was here on business for GE Oil &amp; Gas, which is located right across the street. The room I had (a king with a sofa bed) was very large, and quite comfortable. There was a good variety for breakfast, both of hot (eggs, sausage, waffles), and cold (pastries, cereals, etc.) items. The area is pretty quiet at night, so street noise is not much of a concern at all. The bed was comfortable, the room as clean, the A/C worked well (a big + for Houston!!!), and the staff was very friendly. I plan to stay here again on my next business trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I just finished my 2-night stay at this La Quinta (my 2nd stay at this hotel...my first was about 2 years ago). The location is perfect for me, as I was here on business for GE Oil &amp; Gas, which is located right across the street. The room I had (a king with a sofa bed) was very large, and quite comfortable. There was a good variety for breakfast, both of hot (eggs, sausage, waffles), and cold (pastries, cereals, etc.) items. The area is pretty quiet at night, so street noise is not much of a concern at all. The bed was comfortable, the room as clean, the A/C worked well (a big + for Houston!!!), and the staff was very friendly. I plan to stay here again on my next business trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r172449967-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172449967</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel... no Internet</t>
+  </si>
+  <si>
+    <t>Great hotel and great staff but little to no wired or wireless Internet fore 2 days.  In talking with the staff this is apparently a common problem for which there is not much interest in addressing.  I enjoy staying here more than the Holiday Inn Express next door but will go back to the HI in the future due to the Internet issues at La Quinta.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r161384736-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161384736</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r141331330-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141331330</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r141014606-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141014606</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Awsome</t>
+  </si>
+  <si>
+    <t>This place we a grate place to stay. I could have not asked for a better place to stay. Staff was very friendly. We worked nights the whole time we were in Houston. they never bothered us and stayed late to make sure that our rooms were clean after we got up. They were awsome and I would deff stay here again in a heart beat. Thanks again La Quinta and staff at the Clay Rd location in Houston Texas</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r138369578-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138369578</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>EASY to find. Easy to get in and out of with hands full of luggage, loved the automatic doors.  Easy to sleep becuase it was so quiet.  Easy to relax with its peaceful pet friendly park behind it.  Easy to enjoy...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r126366430-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126366430</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Best motel in Houston!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is undoubtedly the cleanest motel in Houston.  The staff is friendly and willing to assist in anyway.  Close to businesses.  Other hotels could learn what wonderful customer service is from this La Quinta and Mr. Patel and his staff.  </t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r125596232-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125596232</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>I stayed at this location a few weeks ago when I was in Houston on business. The location is great. Very convenient to offices and the Beltway with restaurants just a few minutes away, had an awesome Texas size steak. The rooms were spacious and really really clean. The staff were friendly and helped me navigate around. The manager even took the time to help me get my computer connected, which was a life saver. All in all I would definitely stay here again, it has a comfortable feel.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r125498727-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125498727</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r113072197-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113072197</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Clean, great value for price</t>
+  </si>
+  <si>
+    <t>I stayed at this La Quinta for a few nights and had a great experience. The rooms were immaculate (hard to believe the place is 5 years old) and the staff was very professional and courteous; they made me feel right at home. The beds felt like sleeping on a cloud, supportive yet plush. The best part was the area. It was great to see so many trees amidst the concrete jungle. The park next door is a welcome site. Only downside, there are not many restaurants in the area, but with a short 5 min drive I found a variety of places. I did try the Red Balloon Cafe, a 1 min stroll from the hotel, great hamburgers and patio. I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this La Quinta for a few nights and had a great experience. The rooms were immaculate (hard to believe the place is 5 years old) and the staff was very professional and courteous; they made me feel right at home. The beds felt like sleeping on a cloud, supportive yet plush. The best part was the area. It was great to see so many trees amidst the concrete jungle. The park next door is a welcome site. Only downside, there are not many restaurants in the area, but with a short 5 min drive I found a variety of places. I did try the Red Balloon Cafe, a 1 min stroll from the hotel, great hamburgers and patio. I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r24020437-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24020437</t>
+  </si>
+  <si>
+    <t>01/29/2009</t>
+  </si>
+  <si>
+    <t>Great Hotel for Mid-price Range</t>
+  </si>
+  <si>
+    <t>My five star rating is based on the price range. I'm basically comparing it to "3 star" hotels.  This LaQuinta was VERY CLEAN. I was shocked to find out that it was over five years old.  The rooms were comfortable and quiet.The manager was checking the kitchen each morning, and even doing some room service.  I suspect that the commitment of the manager is one reason this hotel is in such great shape.Overall, there's not much to do in the surrounding area, but if you are working nearby, this hotel is a great place to stay.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r10428593-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10428593</t>
+  </si>
+  <si>
+    <t>10/29/2007</t>
+  </si>
+  <si>
+    <t>GREAT La Quinta</t>
+  </si>
+  <si>
+    <t>Courteous staff, great housekeepers, good (not great, but good) continental breakfast, nice setting, very clean.  HOT water, NICE rooms with small fridge and microwave, WIRED internet connection, desk, good fitness room, walking trail.  Close conveniences like grocery stores and cleaners.  Beds are a little hard, so you might want to ask for padding if you need something softer.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r4356872-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4356872</t>
+  </si>
+  <si>
+    <t>01/15/2006</t>
+  </si>
+  <si>
+    <t>Great Mid-Price Hotel; Great Location</t>
+  </si>
+  <si>
+    <t>This is a brand new property - less than a year old.  Very clean and spotless.  Excellent customer service -- friendly and attentive.  After speaking with their front desk -- their major traffic is during the week (Mon - Thurs) for business travelers working in the area business centers.  I received a great weekend rate and a wide open hotel.  Very good continental breakfast and walking distance to a Square Donuts and Dry Cleaners if you need them.  The hotel is also conveniently located to various attractions and parks.  In fact it backs up to a small park and is very quiet.  They have wireless internet connectability and huge work desks in the rooms.  Be sure to try The Taste of Texas restaurant for the best steak in your life!  Just a short drive from the hotel -- but be sure to go early.  I went on Saturday night and arrived at 6:45pm and waited about an hour and 20 minutes -- but it was well worth the wait.  Skip the appetizers --- you'll need the room for their great salad bar and fabulous steaks!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a brand new property - less than a year old.  Very clean and spotless.  Excellent customer service -- friendly and attentive.  After speaking with their front desk -- their major traffic is during the week (Mon - Thurs) for business travelers working in the area business centers.  I received a great weekend rate and a wide open hotel.  Very good continental breakfast and walking distance to a Square Donuts and Dry Cleaners if you need them.  The hotel is also conveniently located to various attractions and parks.  In fact it backs up to a small park and is very quiet.  They have wireless internet connectability and huge work desks in the rooms.  Be sure to try The Taste of Texas restaurant for the best steak in your life!  Just a short drive from the hotel -- but be sure to go early.  I went on Saturday night and arrived at 6:45pm and waited about an hour and 20 minutes -- but it was well worth the wait.  Skip the appetizers --- you'll need the room for their great salad bar and fabulous steaks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r3397877-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3397877</t>
+  </si>
+  <si>
+    <t>04/21/2005</t>
+  </si>
+  <si>
+    <t>A treat</t>
+  </si>
+  <si>
+    <t>Brand new hotel, open only four months when we stayed here in April 2005. Spotless and very comfortable as a consequence. In a quiet, residential area, surrounded by fields and trees, so a welcome change from Houston's highways. A small new plaza adjacent should provide closer amenities very soon. Hard to fault.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1441,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1473,3009 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>289</v>
+      </c>
+      <c r="J36" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" t="s">
+        <v>291</v>
+      </c>
+      <c r="L36" t="s">
+        <v>292</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>304</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>318</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>319</v>
+      </c>
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" t="s">
+        <v>323</v>
+      </c>
+      <c r="K42" t="s">
+        <v>324</v>
+      </c>
+      <c r="L42" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" t="s">
+        <v>331</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>332</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_458.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_458.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r611356890-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>530458</t>
+  </si>
+  <si>
+    <t>611356890</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>My repeated stay</t>
+  </si>
+  <si>
+    <t>Excellent friendly staff, clean rooms, professional atmosphere, good price, QUIET area. good food. The gentleman that greeted us was polite, expeditious and professional.  I have stayed here previously and keep coming back because of its safe area and easy access to the highways.  I-10 and Highway 8.  Thanks.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r582341057-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582341057</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Houston site</t>
+  </si>
+  <si>
+    <t>The hotel was so inviting and warm.  I really enjoyed my stay and definitely will return.  Gracious people and quiet area.  This has been the best hotel in Houston I have ever stayed at, and I travel Austin.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Rinesh, Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel was so inviting and warm.  I really enjoyed my stay and definitely will return.  Gracious people and quiet area.  This has been the best hotel in Houston I have ever stayed at, and I travel Austin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r606227699-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606227699</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Extremely Clean Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Clay Road LaQuinta in Houston and were extremely satisfied with our accommodations and location of this hotel.  The hotel staff were very professional and courteous as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r603947656-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>603947656</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>This is one of my favorite LaQuinta's to stay at. Always clean, very comfortable beds, friendly staff. It is more upscale than your typical LaQuinta. I highly recommend if you are looking for a hotel in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>This is one of my favorite LaQuinta's to stay at. Always clean, very comfortable beds, friendly staff. It is more upscale than your typical LaQuinta. I highly recommend if you are looking for a hotel in this area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r584692143-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>530458</t>
-  </si>
-  <si>
     <t>584692143</t>
   </si>
   <si>
@@ -171,18 +258,6 @@
     <t>Gorgeous exterior and room, very friendly staff, super clean. We got a great night sleep because it was cool, dark and quiet. Due to time constraints, we did not eat breakfast, but it looked and smelled wonderful--plenty of space for people to enjoy their food, and it was really clean.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Rinesh, Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
     <t>Gorgeous exterior and room, very friendly staff, super clean. We got a great night sleep because it was cool, dark and quiet. Due to time constraints, we did not eat breakfast, but it looked and smelled wonderful--plenty of space for people to enjoy their food, and it was really clean.More</t>
   </si>
   <si>
@@ -225,6 +300,57 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r569017158-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569017158</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>As a woman traveling alone, I really like being able to be ask for (and receive!) a room on the first floor, close to the front desk and the breakfast area. I usually arrive late, after dark, so this is comforting. In the morning, I am able to dash into the breakfast area, get coffee and then go back into my room and relax before I start my business day.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>As a woman traveling alone, I really like being able to be ask for (and receive!) a room on the first floor, close to the front desk and the breakfast area. I usually arrive late, after dark, so this is comforting. In the morning, I am able to dash into the breakfast area, get coffee and then go back into my room and relax before I start my business day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r566987011-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566987011</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Hotel stay to repeat</t>
+  </si>
+  <si>
+    <t>La Quinta (off Clay road) was comfortably located for my travel to various meetings. The room is large with clean carpet and bed linens. The internet is fast (wired and wireless). Break fast is typical US style with limited selection and it is same for all the days. The staff are friendly and allowed me to keep the luggage till evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>La Quinta (off Clay road) was comfortably located for my travel to various meetings. The room is large with clean carpet and bed linens. The internet is fast (wired and wireless). Break fast is typical US style with limited selection and it is same for all the days. The staff are friendly and allowed me to keep the luggage till evening.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r555718673-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -243,9 +369,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded January 31, 2018</t>
   </si>
   <si>
@@ -309,6 +432,60 @@
     <t>My experience at La Quinta was fabulous! My dog and I loved the enclosed park in the back, the grounds were wonderful, staff friendly and professional, food great, room couldn't have been cleaner. And what a value!  This was the first time travelling with my dog and La Quinta will be my forever hotel when I travel with or without her!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r483478866-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483478866</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>I was so very surprised at how great this hotel was. We brought our 2 large dogs and we were not charged any additional fees, which was amazing. The rooms and hotel were all very very clean. The staff was very friendly. I have to say I have stayed in many hotels in my life and this was one of the best places I have ever been to. I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I was so very surprised at how great this hotel was. We brought our 2 large dogs and we were not charged any additional fees, which was amazing. The rooms and hotel were all very very clean. The staff was very friendly. I have to say I have stayed in many hotels in my life and this was one of the best places I have ever been to. I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r477620956-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477620956</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>blah</t>
+  </si>
+  <si>
+    <t>I stayed here at the recommendation of a coworker while visiting my company's Houston office. Location was convenient to BW8 and local companies. Nothing fancy for sure. A/C barely worked. Will not stay again.  Was overpriced. Found a much cleaner, nicer and even cheaper to boot brand hotel just up the road.  Will not visit this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded April 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here at the recommendation of a coworker while visiting my company's Houston office. Location was convenient to BW8 and local companies. Nothing fancy for sure. A/C barely worked. Will not stay again.  Was overpriced. Found a much cleaner, nicer and even cheaper to boot brand hotel just up the road.  Will not visit this location again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r476360097-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -318,9 +495,6 @@
     <t>04/17/2017</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded April 21, 2017</t>
   </si>
   <si>
@@ -375,6 +549,42 @@
     <t>Staff was polite and helpful; room was made up promptly every day. The front desk staff was quick to help with any request we madeComplementary breakfast was better than usual--eggs, bacon &amp; sausage delicious; you can make your own waffle if you want.  There is fresh-brewed Starbucks coffee all day with flavored creamer if you want it. Room was comfortable &amp; the type expected; adequate seating, and the remote for the TV actually had fresh batteries. The closet was actually big enough to hang clothes, stow luggage and a bag of 3 days of dirty clothes.Not part of the hotel, but there is a gate into a small natural area with lovely old trees.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r431226381-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431226381</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>The location was good - nice and quiet.  The room was clean and comfortable. The staff was very friendly.  The breakfast was good and well stocked.  I did not have any problems at all. The next time I visit Houston I will be staying here.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r427075048-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427075048</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Location, location, location</t>
+  </si>
+  <si>
+    <t>I wanted to try this LaQuinta for its location. I have stayed in some lovely LaQuinta's and some not so lovely. This one is super. The value is superior with one caveat you need to know. The lack of pool is the only liability, depending on whether you want one. The hotel is located in an industrial area, just east of Highway 8 and a little north of Highway 10. Apparently their customers are mostly working stiffs who stay during the week. I rarely use a pool when we travel.The BEST thing about this hotel is the small, urban park behind the building and the little restaurants right beside it on Clay. We travel with a dog and he thought he'd died and gone to heaven with the squirrels to chase.  The desk clerks were friendly. The place was super clean. Our room was quite big.  The place was quiet and the bed comfortable. I peeked in the Exercise Room. It looks nice. The view from the breakfast area is refreshing with the giant tress in the park to see. I've stayed in many hotels which cost more and offered far less than this very nice LaQuinta.Try it. I think you'll be pleasedMoreShow less</t>
+  </si>
+  <si>
+    <t>I wanted to try this LaQuinta for its location. I have stayed in some lovely LaQuinta's and some not so lovely. This one is super. The value is superior with one caveat you need to know. The lack of pool is the only liability, depending on whether you want one. The hotel is located in an industrial area, just east of Highway 8 and a little north of Highway 10. Apparently their customers are mostly working stiffs who stay during the week. I rarely use a pool when we travel.The BEST thing about this hotel is the small, urban park behind the building and the little restaurants right beside it on Clay. We travel with a dog and he thought he'd died and gone to heaven with the squirrels to chase.  The desk clerks were friendly. The place was super clean. Our room was quite big.  The place was quiet and the bed comfortable. I peeked in the Exercise Room. It looks nice. The view from the breakfast area is refreshing with the giant tress in the park to see. I've stayed in many hotels which cost more and offered far less than this very nice LaQuinta.Try it. I think you'll be pleasedMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r398683279-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -429,6 +639,48 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r374536531-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374536531</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Best LaQuinta ever!</t>
+  </si>
+  <si>
+    <t>I am never sure about staying at LaQuinta.  Some of their properties are run down and very "old motel" style.  We had to go to Houston and this property was conveniently located for us.  OMG we hit the jackpot on this one.  Extremely clean, very modern style in lobby and rooms.  Everything worked properly, nice and bright bathrooms.  Breakfast area was very nice with a great breakfast including hot items.  Stayed there twice in April and enjoyed both visits.  Employees (especially Muhammad at the front desk) were friendly and knowledgeable).  Wish they were all like this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>I am never sure about staying at LaQuinta.  Some of their properties are run down and very "old motel" style.  We had to go to Houston and this property was conveniently located for us.  OMG we hit the jackpot on this one.  Extremely clean, very modern style in lobby and rooms.  Everything worked properly, nice and bright bathrooms.  Breakfast area was very nice with a great breakfast including hot items.  Stayed there twice in April and enjoyed both visits.  Employees (especially Muhammad at the front desk) were friendly and knowledgeable).  Wish they were all like this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r374725963-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374725963</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Clean room, reasonably priced</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this hotel. It was close to my business meeting. The rooms were clean, the service was good and I would stay there again. I stayed 4 nights and the service was good also. Good room for the price.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r373828791-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,9 +711,6 @@
     <t>The hotel and amenities were sufficient for my needs. The room was very clean,the hotel lobby was very eye appealing.  Not a fan of the breakfast there could be more variety but as they say free is free</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r363981163-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -477,6 +726,36 @@
     <t>Rode up for my father-in-laws 90th birthday bash. Wanted convenient, cost-effective, safe, and clean place. This was a "diamond in the rough"; next to Beltway 8 and accessible to all freeways. Cost was excellent since this was the week of the NCAA Playoffs and other hotels were at "gouge pricing". Clean with great free breakfast (make your own waffles, eggs &amp; bacon, and plenty of healthy options.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r361879038-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361879038</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Only stayed one night but hotel was very modern, clean and good breakfast. The location is very easy to get to and from. Staff had minimal contact with us just check in and out. Room was very comfortable, no problems. I might suggest since they are in Texas they might serve some picante sauce with the eggs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r334433333-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334433333</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>This hotel is like new. The room includes a separate bedroom, two flat screens tv, very fast wired internet (I did not try the wifi). Everything in the hotel looks amazing. Service is perfect! I highly recommend it to anyone looking for a place to stay in the area.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r328590108-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -546,6 +825,51 @@
     <t>This stay was excellent for Price. I was very satisfied especially with full breakfast in morning. I was with my family so everyone ate and were all satisfied.  However, I wish that they would have told me the pool was closed for renovation.  I really wanted pool so I was bit let down. This was a smoke free facility so that was great but there is smoking area up front which I used. I like the fact that it also build my points up so I can get a free stay down line.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r308128411-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308128411</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Good Deal !</t>
+  </si>
+  <si>
+    <t>Great staff, very polite and helpful.Room has a very good space and quality/ comfortable. The breakfast is good but could be better.Gym is very simple, no pool. Good for busy travelers for few nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Great staff, very polite and helpful.Room has a very good space and quality/ comfortable. The breakfast is good but could be better.Gym is very simple, no pool. Good for busy travelers for few nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r303163771-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303163771</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Hood hotel</t>
+  </si>
+  <si>
+    <t>I stayed here for work pourpose just a couple of days. It's a good hotel. People are kind and rooms are clean. There was a little fitness room.  Pool was in construction and not yet ready. The quality - cost ratio is good .MoreShow less</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for work pourpose just a couple of days. It's a good hotel. People are kind and rooms are clean. There was a little fitness room.  Pool was in construction and not yet ready. The quality - cost ratio is good .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r295011072-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -612,6 +936,54 @@
     <t>We chose this hotel because it was closed to my son's soccer games. Facilities were pretty good maintained, staff was very friendly and rooms clean and comfy. The dehumidifier was a very nice touch, kept the room fresh and humidity-free. Breakfast was also good, little bit better than other La Quinta hotels I stayed at. Couple of notes for improvement: wi-fi was not as fast as I expected, it was not bad at all though; and also the hotel closed the pool permanently, not that we could use it because the weather, but it's one of the features I see when looking for a hotel since I have 2 children.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r269178307-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269178307</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Good option to stay in this Area !!</t>
+  </si>
+  <si>
+    <t>Hotel infrastructure is good and having good speed of internet without downtime.  Breakfast is also good. Not much options are there for vegetarian.  Rooms are nice and clean.  Hotel staff is also cooperativeMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Hotel infrastructure is good and having good speed of internet without downtime.  Breakfast is also good. Not much options are there for vegetarian.  Rooms are nice and clean.  Hotel staff is also cooperativeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r263524972-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263524972</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>No Pool</t>
+  </si>
+  <si>
+    <t>Indoor pool and hot tub has been permanently closed to enlarge the fitness center.   They don't tell you this when you make your reservation.  Rates are very high during week days.  Much more reasonable on Friday and Saturday nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded April 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2015</t>
+  </si>
+  <si>
+    <t>Indoor pool and hot tub has been permanently closed to enlarge the fitness center.   They don't tell you this when you make your reservation.  Rates are very high during week days.  Much more reasonable on Friday and Saturday nights.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r258202038-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -627,9 +999,6 @@
     <t>Great location to the Energy Sector in West Houston. Clean and neat rooms. Breakfast in the morning. Easy access to Beltway 8, Hwy 290, I-10. easy access to rooms because of the size of the facility, not too large and overwhelming.MoreShow less</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>Rinesh, Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded March 8, 2015</t>
   </si>
   <si>
@@ -690,6 +1059,54 @@
     <t>I have stayed here at least 4 times visiting family. I have always thought it to be clean, quiet, professionally managed. There were some loud guests this last time - but that is not so much the hotel's problem. People can just be inconsiderate - forgetting that there are people perhaps sleeping at after 10:30pm. Comfortable beds.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r245052222-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245052222</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Excellent Folks</t>
+  </si>
+  <si>
+    <t>This was a very good place to stay.  The breakfast was excellent and such variety you could pick something different each day.  The rooms were very, very clean and the quality of the bed was excellent.  I would recommend this hotel to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>This was a very good place to stay.  The breakfast was excellent and such variety you could pick something different each day.  The rooms were very, very clean and the quality of the bed was excellent.  I would recommend this hotel to anybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r244110715-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244110715</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Good and Calm..</t>
+  </si>
+  <si>
+    <t>I like this hotel very much and this is the second time I am staying here.. All the staffs are good and really helpful.. I would really recommend this hotel for anyone who likes to be in a calm place..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I like this hotel very much and this is the second time I am staying here.. All the staffs are good and really helpful.. I would really recommend this hotel for anyone who likes to be in a calm place..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r229769194-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -762,6 +1179,51 @@
     <t>the hotel was very clean and check in and out was very fast.  Employees were very friendly and helpful on all questions. location of hotel was good for the locations I was doing business.  I would recommend this hotel to any one doing business in are around location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r217368543-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217368543</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Very friendly staff, rooms were very nice and bed was  comfortable. Had king bed, Love Seat, and 2 chairs plus desk and chair. When we had trouble with Wi-Fi the clerk was very helpful in resolving our problem.  Several cafes were within walking distance.  The only problem is early morning/late afternoon traffic for the toll road, but that is for a short time/distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Rinesh, General Manager at La Quinta Inn &amp; Suites Houston West at Clay Road, responded to this reviewResponded July 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2014</t>
+  </si>
+  <si>
+    <t>Very friendly staff, rooms were very nice and bed was  comfortable. Had king bed, Love Seat, and 2 chairs plus desk and chair. When we had trouble with Wi-Fi the clerk was very helpful in resolving our problem.  Several cafes were within walking distance.  The only problem is early morning/late afternoon traffic for the toll road, but that is for a short time/distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r207053978-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207053978</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>A place to come back to</t>
+  </si>
+  <si>
+    <t>I was tired after a long day at work. When I checked in, there was a very friendly welcome. Although the hotel was probably full, I never was under the impression that there were many people. Everything was very clean, breakfast was good, staff very friendly and helpful, restaurants in walking distance parking available. A YMCA fitness center is nearby.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r202658504-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -819,6 +1281,27 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r191422004-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191422004</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r182689159-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182689159</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff, quick check-in and out. Great Breakfast and clean rooms. all updated appliances in rooms.Nice indoor pool with hot tub.  Location is easy access off highways with great food options next door.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r176922752-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -870,6 +1353,27 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r143617840-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143617840</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r142082761-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142082761</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r141331330-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1419,39 @@
     <t>EASY to find. Easy to get in and out of with hands full of luggage, loved the automatic doors.  Easy to sleep becuase it was so quiet.  Easy to relax with its peaceful pet friendly park behind it.  Easy to enjoy...</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r135930270-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135930270</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Great hotel; great location</t>
+  </si>
+  <si>
+    <t>This was a great hotel is a very accesible location.  Nice service, free breakfast, nice and clean rooms.  I would highly recommend this hotel.  Great for larger families as you can get a room with 2 queen beds.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r133955789-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133955789</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>New. Fair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel looks brand new. The furniture is appropriate. It is really clean. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r126366430-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1497,39 @@
     <t>03/02/2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r124190012-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124190012</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>watch your belongings</t>
+  </si>
+  <si>
+    <t>I recently spent 3 nights at LQ hotel, my room was really clean and spacious. I really enjoyed my staying til (my mistake, I acknowledge it) I checked out and forgot my coat in the wardrobe. To my big disappointment, not only the coat never showed up when I returned to the hotel, looking for it, but also the staff was neither keen to help nor friendly and had some attitude :(</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r120479488-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120479488</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>Stayed here twice two weekends in a row. Great location close to the Beltway, good restaurants close by.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r113072197-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1585,45 @@
   </si>
   <si>
     <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r5378778-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5378778</t>
+  </si>
+  <si>
+    <t>06/23/2006</t>
+  </si>
+  <si>
+    <t>WONDERFUL Stay!!!</t>
+  </si>
+  <si>
+    <t>After reading a mediocre review of this property we were a bit hesitant to stay.  We are VERY glad we ignored that single review.  Perhaps the writer confused this property with another.  We can find no fault with this hotel. The bed was very comfortable, the staff was friendly and helpful, the room was imaculate, the location was praefect for our planned activities in Houston and the layout of the hotel was well planned. We usually stay in upscale properties with suites and this one ranks among the nicest in its class.  We will definately stay at this hotel again!</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r4451495-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4451495</t>
+  </si>
+  <si>
+    <t>02/09/2006</t>
+  </si>
+  <si>
+    <t>Hardest beds ever!</t>
+  </si>
+  <si>
+    <t>This was indeed a nice new facility, with the cleanliness that I generally expect from LaQuinta and all that, but NOT NEAR worth the $100 per night we had to pay when we stayed. The decor is plain, and the beds are very hard, like sleeping on a box. The hotel had just opened so they were clearly brand new mattresses but felt extremely cheap quality and uncomfortable. It is also a bit further off the beaten path (and a good stretch from Katy Freeway) than the company's promo blurbs would have one believe. It was okay, but would never stay there again -- didn't get much sleep with the mattress issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2005</t>
+  </si>
+  <si>
+    <t>This was indeed a nice new facility, with the cleanliness that I generally expect from LaQuinta and all that, but NOT NEAR worth the $100 per night we had to pay when we stayed. The decor is plain, and the beds are very hard, like sleeping on a box. The hotel had just opened so they were clearly brand new mattresses but felt extremely cheap quality and uncomfortable. It is also a bit further off the beaten path (and a good stretch from Katy Freeway) than the company's promo blurbs would have one believe. It was okay, but would never stay there again -- didn't get much sleep with the mattress issue.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d530458-r4356872-La_Quinta_Inn_Suites_Houston_West_at_Clay_Road-Houston_Texas.html</t>
@@ -1597,26 +2206,22 @@
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1632,40 +2237,40 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
@@ -1681,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
         <v>61</v>
@@ -1717,15 +2322,17 @@
       <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s"/>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
         <v>67</v>
@@ -1749,14 +2356,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" t="s">
-        <v>54</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1772,34 +2375,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1808,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1821,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1843,56 +2446,62 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1908,7 +2517,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1917,31 +2526,31 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>5</v>
@@ -1957,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1979,7 +2588,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1988,26 +2597,26 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
@@ -2020,19 +2629,19 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="Y8" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2048,7 +2657,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2057,25 +2666,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2097,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2119,7 +2728,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2128,43 +2737,47 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2180,7 +2793,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2189,22 +2802,22 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
@@ -2216,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2228,10 +2841,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -2247,47 +2864,41 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>125</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="O12" t="s">
         <v>126</v>
       </c>
-      <c r="J12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2295,8 +2906,12 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
       <c r="Y12" t="s">
         <v>129</v>
       </c>
@@ -2314,34 +2929,34 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>131</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>132</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>133</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>134</v>
       </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2362,10 +2977,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2381,7 +3000,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2390,35 +3009,49 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2434,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2443,49 +3076,53 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2501,7 +3138,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2510,39 +3147,51 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K16" t="s"/>
       <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>152</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>147</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -2558,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2567,33 +3216,37 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2602,10 +3255,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2621,7 +3278,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2630,38 +3287,32 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2669,14 +3320,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>166</v>
-      </c>
-      <c r="X18" t="s">
-        <v>167</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -2692,7 +3339,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2701,38 +3348,32 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>4</v>
@@ -2740,14 +3381,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>166</v>
-      </c>
-      <c r="X19" t="s">
-        <v>167</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2763,7 +3400,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2772,32 +3409,32 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
@@ -2810,7 +3447,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -2826,7 +3463,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2835,28 +3472,28 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
@@ -2874,14 +3511,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>188</v>
-      </c>
-      <c r="X21" t="s">
-        <v>189</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -2897,7 +3530,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2906,22 +3539,22 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
@@ -2936,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2945,14 +3578,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>188</v>
-      </c>
-      <c r="X22" t="s">
-        <v>189</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
@@ -2968,7 +3597,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2977,34 +3606,34 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3016,14 +3645,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>204</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
         <v>205</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -3062,16 +3687,16 @@
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3084,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
@@ -3106,7 +3731,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3115,28 +3740,28 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>4</v>
@@ -3154,14 +3779,10 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>221</v>
-      </c>
-      <c r="X25" t="s">
-        <v>222</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -3177,58 +3798,44 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
         <v>224</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>225</v>
       </c>
-      <c r="J26" t="s">
-        <v>226</v>
-      </c>
-      <c r="K26" t="s">
-        <v>227</v>
-      </c>
-      <c r="L26" t="s">
-        <v>228</v>
-      </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>229</v>
-      </c>
-      <c r="O26" t="s">
-        <v>75</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>230</v>
-      </c>
-      <c r="X26" t="s">
-        <v>231</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
@@ -3244,7 +3851,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3253,28 +3860,28 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
@@ -3283,7 +3890,7 @@
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3292,14 +3899,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>239</v>
-      </c>
-      <c r="X27" t="s">
-        <v>240</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -3315,7 +3918,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3324,53 +3927,39 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>239</v>
-      </c>
-      <c r="X28" t="s">
-        <v>240</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -3386,7 +3975,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3395,49 +3984,39 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -3453,7 +4032,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3462,31 +4041,31 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
@@ -3504,7 +4083,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
@@ -3520,7 +4099,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3529,37 +4108,33 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3571,7 +4146,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -3587,7 +4162,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3596,25 +4171,25 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3635,10 +4210,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>259</v>
+      </c>
+      <c r="X32" t="s">
+        <v>260</v>
+      </c>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -3654,7 +4233,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3663,31 +4242,31 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
@@ -3697,15 +4276,19 @@
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
+        <v>260</v>
+      </c>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
@@ -3721,7 +4304,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3730,31 +4313,29 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -3765,9 +4346,15 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
+      <c r="W34" t="s">
+        <v>259</v>
+      </c>
+      <c r="X34" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3782,7 +4369,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3791,44 +4378,44 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
-      </c>
-      <c r="K35" t="s"/>
-      <c r="L35" t="s"/>
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
+      <c r="W35" t="s">
+        <v>281</v>
+      </c>
+      <c r="X35" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3843,47 +4430,43 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K36" t="s">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s">
         <v>288</v>
       </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>289</v>
       </c>
-      <c r="J36" t="s">
-        <v>290</v>
-      </c>
-      <c r="K36" t="s">
-        <v>291</v>
-      </c>
-      <c r="L36" t="s">
-        <v>292</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>293</v>
-      </c>
       <c r="O36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3894,7 +4477,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
@@ -3910,37 +4493,37 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
         <v>294</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>295</v>
       </c>
-      <c r="J37" t="s">
-        <v>296</v>
-      </c>
-      <c r="K37" t="s">
-        <v>297</v>
-      </c>
-      <c r="L37" t="s">
-        <v>298</v>
-      </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
         <v>5</v>
@@ -3958,8 +4541,12 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>296</v>
+      </c>
+      <c r="X37" t="s">
+        <v>297</v>
+      </c>
       <c r="Y37" t="s">
         <v>298</v>
       </c>
@@ -4004,10 +4591,10 @@
         <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
@@ -4016,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4025,10 +4612,14 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>296</v>
+      </c>
+      <c r="X38" t="s">
+        <v>297</v>
+      </c>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39">
@@ -4044,7 +4635,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4053,31 +4644,31 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
         <v>4</v>
@@ -4087,15 +4678,19 @@
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>296</v>
+      </c>
+      <c r="X39" t="s">
+        <v>297</v>
+      </c>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -4111,7 +4706,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4120,44 +4715,54 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
+      <c r="W40" t="s">
+        <v>319</v>
+      </c>
+      <c r="X40" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4172,7 +4777,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4181,31 +4786,35 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
+        <v>326</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>318</v>
       </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>319</v>
-      </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4216,10 +4825,14 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>327</v>
+      </c>
+      <c r="X41" t="s">
+        <v>328</v>
+      </c>
       <c r="Y41" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
@@ -4235,7 +4848,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4244,34 +4857,30 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="J42" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
-        <v>326</v>
-      </c>
-      <c r="O42" t="s">
-        <v>75</v>
-      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4283,10 +4892,14 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>335</v>
+      </c>
+      <c r="X42" t="s">
+        <v>336</v>
+      </c>
       <c r="Y42" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43">
@@ -4302,7 +4915,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4311,25 +4924,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4338,22 +4951,26 @@
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>344</v>
+      </c>
+      <c r="X43" t="s">
+        <v>345</v>
+      </c>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
@@ -4369,7 +4986,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4378,29 +4995,35 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="n">
         <v>5</v>
       </c>
@@ -4411,10 +5034,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
       <c r="Y44" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
@@ -4430,7 +5057,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4439,43 +5066,2129 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="N45" t="s">
+        <v>361</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="R45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="n">
         <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X45" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>368</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>369</v>
+      </c>
+      <c r="X46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>343</v>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>378</v>
+      </c>
+      <c r="X47" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>377</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>378</v>
+      </c>
+      <c r="X48" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>393</v>
+      </c>
+      <c r="X49" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J50" t="s">
+        <v>398</v>
+      </c>
+      <c r="K50" t="s">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>409</v>
+      </c>
+      <c r="J52" t="s">
+        <v>410</v>
+      </c>
+      <c r="K52" t="s">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s">
+        <v>412</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>413</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>422</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>425</v>
+      </c>
+      <c r="J55" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
+        <v>239</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>428</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>429</v>
+      </c>
+      <c r="J56" t="s">
+        <v>430</v>
+      </c>
+      <c r="K56" t="s">
+        <v>431</v>
+      </c>
+      <c r="L56" t="s">
+        <v>432</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>433</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s">
+        <v>438</v>
+      </c>
+      <c r="L57" t="s">
+        <v>439</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>440</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" t="s">
+        <v>443</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>444</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>446</v>
+      </c>
+      <c r="J59" t="s">
+        <v>447</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>448</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>448</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>452</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>453</v>
+      </c>
+      <c r="J61" t="s">
+        <v>454</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>455</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>457</v>
+      </c>
+      <c r="J62" t="s">
+        <v>458</v>
+      </c>
+      <c r="K62" t="s">
+        <v>459</v>
+      </c>
+      <c r="L62" t="s">
+        <v>460</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>461</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>462</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>463</v>
+      </c>
+      <c r="J63" t="s">
+        <v>464</v>
+      </c>
+      <c r="K63" t="s">
+        <v>465</v>
+      </c>
+      <c r="L63" t="s">
+        <v>466</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>461</v>
+      </c>
+      <c r="O63" t="s">
+        <v>126</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" t="s">
+        <v>469</v>
+      </c>
+      <c r="K64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L64" t="s">
+        <v>471</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>474</v>
+      </c>
+      <c r="J65" t="s">
+        <v>475</v>
+      </c>
+      <c r="K65" t="s">
+        <v>476</v>
+      </c>
+      <c r="L65" t="s">
+        <v>477</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>478</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>479</v>
+      </c>
+      <c r="J66" t="s">
+        <v>480</v>
+      </c>
+      <c r="K66" t="s">
+        <v>481</v>
+      </c>
+      <c r="L66" t="s">
+        <v>482</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>483</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>485</v>
+      </c>
+      <c r="J67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K67" t="s">
+        <v>487</v>
+      </c>
+      <c r="L67" t="s">
+        <v>488</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>489</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>490</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>491</v>
+      </c>
+      <c r="J68" t="s">
+        <v>492</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>489</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>493</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>494</v>
+      </c>
+      <c r="J69" t="s">
+        <v>495</v>
+      </c>
+      <c r="K69" t="s">
+        <v>496</v>
+      </c>
+      <c r="L69" t="s">
+        <v>497</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>498</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>499</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>500</v>
+      </c>
+      <c r="J70" t="s">
+        <v>501</v>
+      </c>
+      <c r="K70" t="s">
+        <v>502</v>
+      </c>
+      <c r="L70" t="s">
+        <v>503</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>504</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>505</v>
+      </c>
+      <c r="J71" t="s">
+        <v>506</v>
+      </c>
+      <c r="K71" t="s">
+        <v>507</v>
+      </c>
+      <c r="L71" t="s">
+        <v>508</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>509</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>511</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>512</v>
+      </c>
+      <c r="J72" t="s">
+        <v>513</v>
+      </c>
+      <c r="K72" t="s">
+        <v>514</v>
+      </c>
+      <c r="L72" t="s">
+        <v>515</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>516</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>517</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>518</v>
+      </c>
+      <c r="J73" t="s">
+        <v>519</v>
+      </c>
+      <c r="K73" t="s">
+        <v>520</v>
+      </c>
+      <c r="L73" t="s">
+        <v>521</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>522</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>523</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>524</v>
+      </c>
+      <c r="J74" t="s">
+        <v>525</v>
+      </c>
+      <c r="K74" t="s">
+        <v>526</v>
+      </c>
+      <c r="L74" t="s">
+        <v>527</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>528</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>529</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>530</v>
+      </c>
+      <c r="J75" t="s">
+        <v>531</v>
+      </c>
+      <c r="K75" t="s">
+        <v>532</v>
+      </c>
+      <c r="L75" t="s">
+        <v>533</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>534</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>536</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" t="s">
+        <v>538</v>
+      </c>
+      <c r="K76" t="s">
+        <v>539</v>
+      </c>
+      <c r="L76" t="s">
+        <v>540</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53145</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>542</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>543</v>
+      </c>
+      <c r="J77" t="s">
+        <v>544</v>
+      </c>
+      <c r="K77" t="s">
+        <v>545</v>
+      </c>
+      <c r="L77" t="s">
+        <v>546</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
